--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -199,9 +199,6 @@
     <t>summary of Fermi's paradox, summary of Drake's Equation</t>
   </si>
   <si>
-    <t>summary of Drake's Equation</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -211,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:47:27 AM</t>
+    <t>Generated: 2023-10-03 11:50:54 AM</t>
   </si>
 </sst>
 </file>
@@ -627,7 +624,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -647,7 +644,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -657,40 +654,34 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,7 +698,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -727,7 +718,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -747,7 +738,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -767,7 +758,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -784,7 +775,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -804,7 +795,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -824,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -844,7 +835,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -864,7 +855,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -884,7 +875,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -904,7 +895,7 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -924,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -944,7 +935,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -964,7 +955,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -984,7 +975,7 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1004,7 +995,7 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1024,7 +1015,7 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1044,7 +1035,7 @@
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1064,7 +1055,7 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1084,7 +1075,7 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1104,7 +1095,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1124,7 +1115,7 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1132,12 +1123,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:50:54 AM</t>
+    <t>Generated: 2023-10-03 12:34:45 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -208,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 12:34:45 PM</t>
+    <t>Generated: 2023-10-03 02:56:39 PM</t>
   </si>
 </sst>
 </file>
@@ -748,20 +748,17 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 02:56:39 PM</t>
+    <t>Generated: 2023-10-03 09:45:56 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 09:45:56 PM</t>
+    <t>Generated: 2023-10-05 10:40:25 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -196,7 +196,7 @@
     <t>summary of Fermi's paradox, summary of Drake's Equation, Create a table  using CSS Grid, create small project using CSS Flexbox</t>
   </si>
   <si>
-    <t>summary of Fermi's paradox, summary of Drake's Equation</t>
+    <t>summary of Fermi's paradox, summary of Drake's Equation, Create a table  using CSS Grid</t>
   </si>
   <si>
     <t>Completed</t>
@@ -208,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-05 10:40:25 AM</t>
+    <t>Generated: 2023-10-06 01:09:57 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,7 +196,7 @@
     <t>summary of Fermi's paradox, summary of Drake's Equation, Create a table  using CSS Grid, create small project using CSS Flexbox</t>
   </si>
   <si>
-    <t>summary of Fermi's paradox, summary of Drake's Equation, Create a table  using CSS Grid</t>
+    <t>summary of Drake's Equation</t>
   </si>
   <si>
     <t>Completed</t>
@@ -208,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-06 01:09:57 PM</t>
+    <t>Generated: 2023-10-07 09:06:20 PM</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -1102,20 +1102,17 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-07 09:06:20 PM</t>
+    <t>Generated: 2023-10-08 11:29:28 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:29:28 AM</t>
+    <t>Generated: 2023-10-08 11:51:58 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,9 +196,6 @@
     <t>summary of Fermi's paradox, summary of Drake's Equation, Create a table  using CSS Grid, create small project using CSS Flexbox</t>
   </si>
   <si>
-    <t>summary of Drake's Equation</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -208,7 +205,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:51:58 AM</t>
+    <t>Generated: 2023-10-10 10:43:20 AM</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -644,7 +641,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -661,7 +658,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -678,7 +675,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -698,7 +695,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -718,7 +715,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -738,7 +735,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -755,7 +752,7 @@
         <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -772,7 +769,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -782,20 +779,17 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -812,7 +806,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -832,7 +826,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -852,7 +846,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -872,7 +866,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -892,7 +886,7 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -912,7 +906,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -932,7 +926,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -952,7 +946,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -972,7 +966,7 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -992,7 +986,7 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1012,7 +1006,7 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1032,7 +1026,7 @@
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1052,7 +1046,7 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1072,7 +1066,7 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1092,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1109,7 +1103,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1117,12 +1111,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-10 10:43:20 AM</t>
+    <t>Generated: 2023-10-13 12:03:46 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-13 12:03:46 PM</t>
+    <t>Generated: 2023-10-19 02:26:39 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-19 02:26:39 PM</t>
+    <t>Generated: 2023-10-23 12:57:26 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week06_report.xlsx
+++ b/Reports/Week06_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week06</t>
   </si>
   <si>
-    <t>Generated: 2023-10-23 12:57:26 PM</t>
+    <t>Generated: 2023-10-25 11:22:40 AM</t>
   </si>
 </sst>
 </file>
